--- a/Toto/trunk/web/WEB-INF/DebugAudit.xlsx
+++ b/Toto/trunk/web/WEB-INF/DebugAudit.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill\projects\Toto\web\WEB-INF\"/>
@@ -14,9 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
     <definedName name="Data">Sheet1!$A$5</definedName>
-    <definedName name="Title">Sheet1!$E$2</definedName>
+    <definedName name="Title">Sheet1!$E$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -37,7 +40,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -49,13 +52,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -70,9 +85,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -95,39 +114,33 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>76201</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>62494</xdr:rowOff>
+      <xdr:colOff>306380</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>647701</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
+    <xdr:pic macro="[1]!ClearAll">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1400175" cy="529219"/>
+          <a:off x="76201" y="133351"/>
+          <a:ext cx="1573204" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -137,6 +150,26 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Analysis"/>
+      <sheetName val="Template"/>
+      <sheetName val="Azquo constants"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="ClearAll"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,7 +435,8 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:E2"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="D1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -414,9 +448,12 @@
     <col min="2" max="1026" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="5:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E2" s="1" t="s">
+    <row r="1" spans="4:5" s="2" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="3" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Toto/trunk/web/WEB-INF/DebugAudit.xlsx
+++ b/Toto/trunk/web/WEB-INF/DebugAudit.xlsx
@@ -1,30 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill\projects\Toto\web\WEB-INF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9834FA04-49A0-4869-9B7C-AB1FFFD72B1E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{C205E3B2-1805-4D5A-A3F3-154C919C5962}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="Data">Sheet1!$A$5</definedName>
-    <definedName name="Title">Sheet1!$E$3</definedName>
+    <definedName name="Data">Sheet1!$A$4</definedName>
+    <definedName name="Title">Sheet1!$D$3</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -39,24 +42,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color rgb="FF0070C0"/>
-      <name val="Arial"/>
+      <sz val="20"/>
+      <color theme="8" tint="-0.24994659260841701"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -68,7 +68,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor rgb="FFED1B29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -85,19 +85,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFED1B29"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -114,33 +116,45 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>306380</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>647701</xdr:rowOff>
+      <xdr:rowOff>514350</xdr:rowOff>
     </xdr:to>
-    <xdr:pic macro="[1]!ClearAll">
+    <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A112E085-9B72-4607-A529-48604E1AEEA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="76201" y="133351"/>
-          <a:ext cx="1573204" cy="514350"/>
+          <a:off x="180975" y="133350"/>
+          <a:ext cx="666750" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -150,26 +164,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Analysis"/>
-      <sheetName val="Template"/>
-      <sheetName val="Azquo constants"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="ClearAll"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -189,7 +183,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -201,7 +195,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -218,9 +212,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -248,14 +242,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -283,6 +294,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -434,36 +462,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="D1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BBBC5F-5A2F-4671-A563-6AA7E2BFAA1E}">
+  <dimension ref="D1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="1026" width="11.5703125"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="4:5" s="2" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="3" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E3" s="1" t="s">
+    <row r="1" spans="4:4" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="4:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>